--- a/truth_fsm.xlsx
+++ b/truth_fsm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="truth_fsm" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -268,24 +268,41 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -296,7 +313,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,11 +322,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -318,10 +331,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,33 +662,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -687,7 +701,7 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -705,7 +719,7 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -723,7 +737,7 @@
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -741,103 +755,103 @@
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -849,13 +863,13 @@
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -867,13 +881,13 @@
       <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -885,13 +899,13 @@
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -903,13 +917,13 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -921,103 +935,103 @@
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>31</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -1029,13 +1043,13 @@
       <c r="F22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1047,13 +1061,13 @@
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1065,13 +1079,13 @@
       <c r="F24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -1083,13 +1097,13 @@
       <c r="F25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1101,13 +1115,13 @@
       <c r="F26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1119,277 +1133,277 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>41</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>42</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>43</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>45</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>46</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>47</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>52</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>53</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
-        <v>54</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>55</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
-        <v>56</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
-        <v>57</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
-        <v>58</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
-        <v>59</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="4" t="s">
         <v>40</v>
       </c>
     </row>
